--- a/Examples/paper_duality/Duality_14Bus.xlsx
+++ b/Examples/paper_duality/Duality_14Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_duality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\Paper_Duality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D39FC31-157C-453B-9CFF-CE0AC19FF376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1070ACD-B61A-4964-9278-7919EE5772BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,19 +120,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,6 +513,10 @@
   </si>
   <si>
     <t>For active device (SG, VSI, etc), please use PGi and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +965,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -984,44 +980,44 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1517,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1561,12 +1557,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1576,159 +1572,159 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>101</v>
-      </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>91</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
+      <c r="K21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1738,7 +1734,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1748,16 +1744,16 @@
     <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1767,32 +1763,32 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
@@ -2017,12 +2013,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -2036,7 +2032,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2044,7 +2040,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2052,7 +2048,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2096,7 +2092,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -2116,20 +2112,20 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -2144,7 +2140,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2158,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2179,22 +2175,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -2209,30 +2205,30 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -2731,134 +2727,134 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
